--- a/Sampler/data/UsersUDC.xlsx
+++ b/Sampler/data/UsersUDC.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/snm/Desktop/ML Sampler/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\byc\Downloads\Qlik-Multilingual-Sampler-master\Qlik-Multilingual-Sampler-master\Sampler\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="2060" windowWidth="24200" windowHeight="17600" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8820" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Users" sheetId="1" r:id="rId1"/>
     <sheet name="Attributes" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="171027" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="35">
   <si>
     <t>userid</t>
   </si>
@@ -124,12 +124,21 @@
   </si>
   <si>
     <t>LANGUAGE_DEVELOPER</t>
+  </si>
+  <si>
+    <t>ptuser</t>
+  </si>
+  <si>
+    <t>Português User</t>
+  </si>
+  <si>
+    <t>pt</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -170,6 +179,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -438,13 +450,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="13.375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -452,7 +469,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -460,7 +477,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -468,7 +485,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -476,7 +493,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -484,7 +501,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -492,7 +509,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -500,7 +517,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -508,7 +525,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -516,12 +533,20 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>24</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -531,13 +556,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -548,7 +575,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="str">
         <f>Users!A2</f>
         <v>enuser</v>
@@ -560,7 +587,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="str">
         <f>Users!A3</f>
         <v>ususer</v>
@@ -572,7 +599,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="str">
         <f>Users!A4</f>
         <v>fruser</v>
@@ -584,7 +611,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="str">
         <f>Users!A5</f>
         <v>deuser</v>
@@ -596,7 +623,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="str">
         <f>Users!A6</f>
         <v>jauser</v>
@@ -608,7 +635,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="str">
         <f>Users!A7</f>
         <v>esuser</v>
@@ -620,7 +647,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="str">
         <f>Users!A8</f>
         <v>finuser</v>
@@ -632,7 +659,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="str">
         <f>Users!A9</f>
         <v>tenuser</v>
@@ -644,7 +671,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="str">
         <f>Users!A10</f>
         <v>qlik</v>
@@ -654,6 +681,18 @@
       </c>
       <c r="C10" t="s">
         <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="str">
+        <f>Users!A11</f>
+        <v>ptuser</v>
+      </c>
+      <c r="B11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
